--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szymo\Desktop\Studia\uczenie maszyn\implementacja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02377CD2-C03B-49D7-879E-D53C549A46D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8ADFBE-06EA-4374-B4FD-A9BFBF5D93B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Eksperyment" sheetId="2" r:id="rId2"/>
+    <sheet name="eksp w krzyżowa" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="27">
   <si>
     <t>Wyższy wynik metryki - wyższa waga klasyfikatora</t>
   </si>
@@ -833,7 +834,690 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eksp w krzyżowa'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'eksp w krzyżowa'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>bands</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ionosphere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bupa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>heart</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hepatitis</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mammographic</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>monk-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>prima</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>phoneme</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>wdbc</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>wisconsin</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>appendicitis</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>titanic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'eksp w krzyżowa'!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.71780821917808202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90583501006036204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72753623188405703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79629629629629595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78313253012048101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75390034801799499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89415390413540197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94547430523210596</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96635895234005997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87748917748917699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79055452484023903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7AF-4F49-996D-3ECD6C256927}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eksp w krzyżowa'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O W M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'eksp w krzyżowa'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>bands</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ionosphere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bupa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>heart</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hepatitis</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mammographic</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>monk-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>prima</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>phoneme</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>wdbc</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>wisconsin</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>appendicitis</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>titanic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'eksp w krzyżowa'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.70684931506849302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90309859154929495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71594202898550696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79629629629629595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79759036144578299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73437738731856295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89600472813238696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93139264089427098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94875483039931297</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81168831168831101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79055452484023903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C7AF-4F49-996D-3ECD6C256927}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eksp w krzyżowa'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'eksp w krzyżowa'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>bands</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ionosphere</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bupa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>heart</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hepatitis</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mammographic</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>monk-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>prima</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>phoneme</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>wdbc</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>wisconsin</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>appendicitis</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>titanic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'eksp w krzyżowa'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.70684931506849302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90869215291750505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73043478260869499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79259259259259196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74610814022578698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89729965395552802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94722869119701902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96195792185487305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87705627705627698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79055452484023903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C7AF-4F49-996D-3ECD6C256927}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="467439087"/>
+        <c:axId val="467438255"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="467439087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467438255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="467438255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467439087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1389,6 +2073,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1410,6 +2597,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B53E45F-D21F-2675-0857-49B42DF7DD81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC60500-AA62-B976-884B-297D8CC49968}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,8 +4574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E23E80A-920D-4ABA-87EF-8C530378BE23}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:K45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5663,4 +6891,302 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB3F6CD-BE6E-4623-BD21-870B04028A1B}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.71780821917808202</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.70684931506849302</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.70684931506849302</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.71239999999999903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.90583501006036204</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.90309859154929495</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.90869215291750505</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.92020000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.72753623188405703</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.71594202898550696</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.73043478260869499</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.62760000000000005</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.79629629629629595</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.79629629629629595</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.79259259259259196</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.72240000000000004</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.83339999999999903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.8286</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.93759999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.78313253012048101</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.79759036144578299</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.80819999999999903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.75390034801799499</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.73437738731856295</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.74610814022578698</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.69259999999999899</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.74739999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.89415390413540197</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.89600472813238696</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.89729965395552802</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.83839999999999903</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.94547430523210596</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.93139264089427098</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.94722869119701902</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.95960000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.96635895234005997</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.94875483039931297</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.96195792185487305</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.97219999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.87748917748917699</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.81168831168831101</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.87705627705627698</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.93379999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.79055452484023903</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.79055452484023903</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.79055452484023903</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.79239999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szymo\Desktop\Studia\uczenie maszyn\implementacja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8ADFBE-06EA-4374-B4FD-A9BFBF5D93B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36922F94-669B-4CF3-9DF0-1B74149B884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6897,8 +6897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB3F6CD-BE6E-4623-BD21-870B04028A1B}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection sqref="A1:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szymo\Desktop\Studia\uczenie maszyn\implementacja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36922F94-669B-4CF3-9DF0-1B74149B884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27EB5AA-8277-4BEC-AB88-CB3CA55EC24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2621,10 +2621,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
@@ -6898,7 +6898,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
